--- a/mbs-perturbation/chain/multinomialNB/smote/chain-multinomialNB-smote-results.xlsx
+++ b/mbs-perturbation/chain/multinomialNB/smote/chain-multinomialNB-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4889867841409692</v>
+        <v>0.6148409893992933</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4902220967438359</v>
+        <v>0.6641414141414141</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4902002305828098</v>
+        <v>0.6479199951868762</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4902220967438359</v>
+        <v>0.6641414141414141</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6164878599661209</v>
+        <v>0.803030303030303</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6001264352607361</v>
+        <v>0.8018933271761719</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6164878599661209</v>
+        <v>0.803030303030303</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7682119205298014</v>
+        <v>0.7817258883248731</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6760869565217391</v>
+        <v>0.7803030303030303</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6662430183240082</v>
+        <v>0.7803016293084208</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6760869565217391</v>
+        <v>0.7803030303030304</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.7181818181818181</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4869565217391305</v>
+        <v>0.7416294928985284</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4859848484848485</v>
+        <v>0.7408936564284612</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4869565217391305</v>
+        <v>0.7416294928985283</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6891304347826087</v>
+        <v>0.8807875711429012</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6616933845576247</v>
+        <v>0.8800160280231889</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6891304347826087</v>
+        <v>0.8807875711429012</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6755918207384078</v>
+        <v>0.7869709032023608</v>
       </c>
       <c r="C7" t="n">
-        <v>0.591776773950687</v>
+        <v>0.7739783623032354</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5808495834420053</v>
+        <v>0.7702049272246239</v>
       </c>
       <c r="E7" t="n">
-        <v>0.591776773950687</v>
+        <v>0.7739783623032354</v>
       </c>
     </row>
   </sheetData>
